--- a/biology/Neurosciences/Sillon_intrapariétal/Sillon_intrapariétal.xlsx
+++ b/biology/Neurosciences/Sillon_intrapariétal/Sillon_intrapariétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sillon_intrapari%C3%A9tal</t>
+          <t>Sillon_intrapariétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le sillon intrapariétal est un sillon de la face latérale supérieure du lobe pariétal du cortex. Il commence au niveau du sillon postcentral, avec lequel il s'anastomose, et se dirige vers l'arrière jusque dans le lobe occipital où il prend le nom de sillon intra-occipital.
 Le sillon intrapariétal délimite la frontière entre les lobules pariétaux supérieur et inférieur.
